--- a/biology/Médecine/Artère_thoracique_latérale/Artère_thoracique_latérale.xlsx
+++ b/biology/Médecine/Artère_thoracique_latérale/Artère_thoracique_latérale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_thoracique_lat%C3%A9rale</t>
+          <t>Artère_thoracique_latérale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère thoracique latérale (ou artère thoracique inférieure ou artère thoracique externe ou artère thoracique longue ou artère thoracique majeure) est une artère inconstante du membre supérieur et du thorax.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_thoracique_lat%C3%A9rale</t>
+          <t>Artère_thoracique_latérale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère thoracique latérale nait du bord antérieur de l'artère axillaire derrière le muscle petit pectoral.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_thoracique_lat%C3%A9rale</t>
+          <t>Artère_thoracique_latérale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle suit le bord inférieur du muscle petit pectoral jusqu'au muscle dentelé antérieur.
 Sur son trajet, elle donne des rameaux d’irrigation aux muscle grand pectoral, dentelé antérieur et intercostaux, ainsi qu'à la région mammaire.
